--- a/worked example.xlsx
+++ b/worked example.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bvandusen/DFW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49CFD7A6-F9E1-DF44-871E-3229C60C3A60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58607D24-7A58-F844-998B-0D11726FB3A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5460" windowWidth="26700" windowHeight="15120" xr2:uid="{D49F06F8-4268-D042-878E-C45AAB1A42AD}"/>
+    <workbookView xWindow="6800" yWindow="460" windowWidth="28740" windowHeight="21380" xr2:uid="{D49F06F8-4268-D042-878E-C45AAB1A42AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2195,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D40DAC-949F-8749-8634-BE6E608A3D00}">
-  <dimension ref="B2:H15"/>
+  <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2358,6 +2364,12 @@
         <v>-0.16919093225030996</v>
       </c>
     </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f>0.25*1.64</f>
+        <v>0.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
